--- a/Modelos em Python/0 dia a frente(7, 1, 7) (2, 1, 1, 12) 24h Erros treino.xlsx
+++ b/Modelos em Python/0 dia a frente(7, 1, 7) (2, 1, 1, 12) 24h Erros treino.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.777936794191683</v>
+        <v>0.743574515769678</v>
       </c>
       <c r="C11" t="n">
-        <v>2.438782925127085</v>
+        <v>2.353742738473501</v>
       </c>
       <c r="D11" t="n">
-        <v>4.133136847110685</v>
+        <v>3.999294946464328</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/0 dia a frente(7, 1, 7) (2, 1, 1, 12) 24h Erros treino.xlsx
+++ b/Modelos em Python/0 dia a frente(7, 1, 7) (2, 1, 1, 12) 24h Erros treino.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3713727431451506</v>
+        <v>0.3655125305445056</v>
       </c>
       <c r="C11" t="n">
-        <v>1.186772669533895</v>
+        <v>1.174952478596561</v>
       </c>
       <c r="D11" t="n">
-        <v>2.961181672296762</v>
+        <v>2.707255043335652</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/0 dia a frente(7, 1, 7) (2, 1, 1, 12) 24h Erros treino.xlsx
+++ b/Modelos em Python/0 dia a frente(7, 1, 7) (2, 1, 1, 12) 24h Erros treino.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.922238763002871</v>
+        <v>9.963955944790126</v>
       </c>
       <c r="C2" t="n">
-        <v>15.67588106909323</v>
+        <v>26.98886189894268</v>
       </c>
       <c r="D2" t="n">
-        <v>20.53195852188905</v>
+        <v>34.88579665647362</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8.195080569550157</v>
+        <v>15.67747061856912</v>
       </c>
       <c r="C3" t="n">
-        <v>26.35675882670577</v>
+        <v>44.75190369546869</v>
       </c>
       <c r="D3" t="n">
-        <v>36.71904170790674</v>
+        <v>59.26708672924762</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.554113921040567</v>
+        <v>10.24579857259374</v>
       </c>
       <c r="C4" t="n">
-        <v>14.41943939920298</v>
+        <v>27.89401426044894</v>
       </c>
       <c r="D4" t="n">
-        <v>19.06149494534506</v>
+        <v>35.7141098386409</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.443093070559883</v>
+        <v>12.07867593343168</v>
       </c>
       <c r="C5" t="n">
-        <v>17.60762593299318</v>
+        <v>33.34248188310119</v>
       </c>
       <c r="D5" t="n">
-        <v>22.735479489921</v>
+        <v>43.11571978813787</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.111025620284044</v>
+        <v>10.33213724555641</v>
       </c>
       <c r="C6" t="n">
-        <v>16.36249074296351</v>
+        <v>28.2162860757594</v>
       </c>
       <c r="D6" t="n">
-        <v>21.74239675675965</v>
+        <v>37.00579183962392</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.444100703461947</v>
+        <v>10.77559711671451</v>
       </c>
       <c r="C7" t="n">
-        <v>17.87678519472814</v>
+        <v>30.57706546133231</v>
       </c>
       <c r="D7" t="n">
-        <v>23.96521122305921</v>
+        <v>39.35749515502026</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.234788503309575</v>
+        <v>15.70241176436682</v>
       </c>
       <c r="C8" t="n">
-        <v>26.48060707207187</v>
+        <v>44.8416432158583</v>
       </c>
       <c r="D8" t="n">
-        <v>36.54856210143175</v>
+        <v>59.054563930858</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8.199215334832799</v>
+        <v>15.86473243190611</v>
       </c>
       <c r="C9" t="n">
-        <v>26.37576141357474</v>
+        <v>45.29792982405996</v>
       </c>
       <c r="D9" t="n">
-        <v>36.50916942305383</v>
+        <v>59.49181489040325</v>
       </c>
     </row>
     <row r="10">
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21.20215088614466</v>
+        <v>21.86118945028635</v>
       </c>
       <c r="C10" t="n">
-        <v>93.46759399523552</v>
+        <v>86.12566694328139</v>
       </c>
       <c r="D10" t="n">
-        <v>93.62957808236743</v>
+        <v>86.33067501387804</v>
       </c>
     </row>
     <row r="11">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3655125305445056</v>
+        <v>0.5900690537565016</v>
       </c>
       <c r="C11" t="n">
-        <v>1.174952478596561</v>
+        <v>1.530724509498651</v>
       </c>
       <c r="D11" t="n">
-        <v>2.707255043335652</v>
+        <v>5.861437588243628</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.07838686099783103</v>
+        <v>0.0447354611368395</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2709000864445941</v>
+        <v>0.1389252803489274</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3633254600608285</v>
+        <v>0.1910352873843887</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.466951951781283</v>
+        <v>0.8738384401957427</v>
       </c>
       <c r="C13" t="n">
-        <v>1.417319023567939</v>
+        <v>2.049600748821753</v>
       </c>
       <c r="D13" t="n">
-        <v>4.680088654227676</v>
+        <v>7.188761241216602</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/0 dia a frente(7, 1, 7) (2, 1, 1, 12) 24h Erros treino.xlsx
+++ b/Modelos em Python/0 dia a frente(7, 1, 7) (2, 1, 1, 12) 24h Erros treino.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9.963955944790126</v>
+        <v>10.8223218146328</v>
       </c>
       <c r="C2" t="n">
-        <v>26.98886189894268</v>
+        <v>28.15452236275166</v>
       </c>
       <c r="D2" t="n">
-        <v>34.88579665647362</v>
+        <v>36.24023315739671</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.67747061856912</v>
+        <v>16.91565537730259</v>
       </c>
       <c r="C3" t="n">
-        <v>44.75190369546869</v>
+        <v>45.44256137485181</v>
       </c>
       <c r="D3" t="n">
-        <v>59.26708672924762</v>
+        <v>60.7747235545133</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10.24579857259374</v>
+        <v>10.87098058771462</v>
       </c>
       <c r="C4" t="n">
-        <v>27.89401426044894</v>
+        <v>28.33687223242185</v>
       </c>
       <c r="D4" t="n">
-        <v>35.7141098386409</v>
+        <v>36.44183986182321</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12.07867593343168</v>
+        <v>12.22257304133208</v>
       </c>
       <c r="C5" t="n">
-        <v>33.34248188310119</v>
+        <v>32.38387311914309</v>
       </c>
       <c r="D5" t="n">
-        <v>43.11571978813787</v>
+        <v>42.1862686846159</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10.33213724555641</v>
+        <v>10.87045751229308</v>
       </c>
       <c r="C6" t="n">
-        <v>28.2162860757594</v>
+        <v>28.66857679152317</v>
       </c>
       <c r="D6" t="n">
-        <v>37.00579183962392</v>
+        <v>37.64730799750098</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10.77559711671451</v>
+        <v>11.27197227725854</v>
       </c>
       <c r="C7" t="n">
-        <v>30.57706546133231</v>
+        <v>30.93617675424185</v>
       </c>
       <c r="D7" t="n">
-        <v>39.35749515502026</v>
+        <v>39.88559388058806</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.70241176436682</v>
+        <v>16.91811092284376</v>
       </c>
       <c r="C8" t="n">
-        <v>44.8416432158583</v>
+        <v>45.59947614850429</v>
       </c>
       <c r="D8" t="n">
-        <v>59.054563930858</v>
+        <v>60.34129023077183</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15.86473243190611</v>
+        <v>16.93638213777944</v>
       </c>
       <c r="C9" t="n">
-        <v>45.29792982405996</v>
+        <v>45.71280331479742</v>
       </c>
       <c r="D9" t="n">
-        <v>59.49181489040325</v>
+        <v>60.21562922318969</v>
       </c>
     </row>
     <row r="10">
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21.86118945028635</v>
+        <v>21.64096902025346</v>
       </c>
       <c r="C10" t="n">
-        <v>86.12566694328139</v>
+        <v>86.15427278945151</v>
       </c>
       <c r="D10" t="n">
-        <v>86.33067501387804</v>
+        <v>86.56750996779635</v>
       </c>
     </row>
     <row r="11">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.5900690537565016</v>
+        <v>0.7251495109552298</v>
       </c>
       <c r="C11" t="n">
-        <v>1.530724509498651</v>
+        <v>1.557928814365853</v>
       </c>
       <c r="D11" t="n">
-        <v>5.861437588243628</v>
+        <v>5.022493829251356</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0447354611368395</v>
+        <v>0.1222760112561082</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1389252803489274</v>
+        <v>0.3735406081789275</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1910352873843887</v>
+        <v>0.5019676328261694</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.8738384401957427</v>
+        <v>1.329340690863089</v>
       </c>
       <c r="C13" t="n">
-        <v>2.049600748821753</v>
+        <v>2.238028367415945</v>
       </c>
       <c r="D13" t="n">
-        <v>7.188761241216602</v>
+        <v>8.468587512917185</v>
       </c>
     </row>
   </sheetData>
